--- a/UBW_API_obfuscation.xlsx
+++ b/UBW_API_obfuscation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extpanaian\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\caelum\repos\ubw-json-to-csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602C868B-E57D-4544-9D31-98FE2ED95EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22708292-6536-4C30-8562-C93B01F8C83F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="2430" windowWidth="23730" windowHeight="10530" xr2:uid="{E359F6E6-FAED-4DFB-A65F-3A9FAAFC7674}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E359F6E6-FAED-4DFB-A65F-3A9FAAFC7674}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="197">
   <si>
     <t>account-groups</t>
   </si>
@@ -621,6 +621,9 @@
   </si>
   <si>
     <t>StringObfuscation(OrigVal, DEFAULT)Obfuscation(OrigVal, 'only numeric')</t>
+  </si>
+  <si>
+    <t>DateYYYYMMObfuscation(OrigVal, 90)</t>
   </si>
 </sst>
 </file>
@@ -664,6 +667,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -677,7 +748,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B8EA1511-AC03-45EB-A53D-C671DD23BB56}" name="Table2" displayName="Table2" ref="A1:D314" totalsRowShown="0">
-  <autoFilter ref="A1:D314" xr:uid="{672F1336-0EA8-4C3A-BF2C-1C5DB13BB90D}"/>
+  <autoFilter ref="A1:D314" xr:uid="{672F1336-0EA8-4C3A-BF2C-1C5DB13BB90D}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="IDMap(OrigVal)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0777AB4E-CF51-4EC8-9CE1-746BE7384A9D}" name="Entity"/>
     <tableColumn id="2" xr3:uid="{035C578C-7EB7-45D3-9D37-4F7F79530094}" name="Column"/>
@@ -693,10 +770,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="FFFFFF"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="000000"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -987,19 +1064,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D470FD1-C6CF-4501-9AD3-3D94C38C26EC}">
   <dimension ref="A1:D314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="39.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>130</v>
       </c>
@@ -1013,7 +1090,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1027,7 +1104,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1118,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1132,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1069,7 +1146,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1160,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1174,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1188,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +1202,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1216,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1153,7 +1230,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1167,7 +1244,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1181,7 +1258,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1195,7 +1272,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1209,7 +1286,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1223,7 +1300,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1237,7 +1314,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1251,7 +1328,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1265,7 +1342,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1276,10 +1353,10 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1290,10 +1367,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1307,7 +1384,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1321,7 +1398,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1335,7 +1412,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1349,7 +1426,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1363,7 +1440,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1377,7 +1454,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1391,7 +1468,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1405,7 +1482,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1419,7 +1496,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1433,7 +1510,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -1447,7 +1524,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -1461,7 +1538,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1475,7 +1552,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -1489,7 +1566,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -1503,7 +1580,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -1517,7 +1594,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1531,7 +1608,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -1545,7 +1622,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -1559,7 +1636,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -1573,7 +1650,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -1587,7 +1664,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -1601,7 +1678,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -1615,7 +1692,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -1629,7 +1706,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -1643,7 +1720,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -1657,7 +1734,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -1671,7 +1748,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -1685,7 +1762,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -1699,7 +1776,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -1713,7 +1790,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -1727,7 +1804,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -1741,7 +1818,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -1755,7 +1832,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -1769,7 +1846,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -1783,7 +1860,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -1797,7 +1874,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -1811,7 +1888,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -1825,7 +1902,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -1839,7 +1916,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -1853,7 +1930,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -1867,7 +1944,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -1881,7 +1958,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -1895,7 +1972,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>24</v>
       </c>
@@ -1909,7 +1986,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>24</v>
       </c>
@@ -1923,7 +2000,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -1937,7 +2014,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>24</v>
       </c>
@@ -1951,7 +2028,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -1965,7 +2042,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -1979,7 +2056,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -1993,7 +2070,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -2007,7 +2084,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -2021,7 +2098,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -2035,7 +2112,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -2049,7 +2126,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>24</v>
       </c>
@@ -2063,7 +2140,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -2077,7 +2154,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -2091,7 +2168,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -2105,7 +2182,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -2119,7 +2196,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>24</v>
       </c>
@@ -2133,7 +2210,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>24</v>
       </c>
@@ -2147,7 +2224,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>24</v>
       </c>
@@ -2161,7 +2238,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>24</v>
       </c>
@@ -2175,7 +2252,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>24</v>
       </c>
@@ -2189,7 +2266,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>24</v>
       </c>
@@ -2203,7 +2280,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>24</v>
       </c>
@@ -2217,7 +2294,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>24</v>
       </c>
@@ -2231,7 +2308,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -2245,7 +2322,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>24</v>
       </c>
@@ -2259,7 +2336,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -2273,7 +2350,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>24</v>
       </c>
@@ -2287,7 +2364,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>24</v>
       </c>
@@ -2301,7 +2378,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>24</v>
       </c>
@@ -2315,7 +2392,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>24</v>
       </c>
@@ -2329,7 +2406,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>24</v>
       </c>
@@ -2343,7 +2420,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -2357,7 +2434,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>24</v>
       </c>
@@ -2371,7 +2448,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>24</v>
       </c>
@@ -2385,7 +2462,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>24</v>
       </c>
@@ -2399,7 +2476,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -2413,7 +2490,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -2427,7 +2504,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>98</v>
       </c>
@@ -2441,7 +2518,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>98</v>
       </c>
@@ -2455,7 +2532,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>98</v>
       </c>
@@ -2469,7 +2546,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>98</v>
       </c>
@@ -2483,7 +2560,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>98</v>
       </c>
@@ -2497,7 +2574,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>98</v>
       </c>
@@ -2511,7 +2588,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>98</v>
       </c>
@@ -2525,7 +2602,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>98</v>
       </c>
@@ -2539,7 +2616,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>98</v>
       </c>
@@ -2553,7 +2630,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>98</v>
       </c>
@@ -2567,7 +2644,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>98</v>
       </c>
@@ -2581,7 +2658,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>98</v>
       </c>
@@ -2595,7 +2672,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>98</v>
       </c>
@@ -2609,7 +2686,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>98</v>
       </c>
@@ -2623,7 +2700,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>98</v>
       </c>
@@ -2637,7 +2714,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>98</v>
       </c>
@@ -2651,7 +2728,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>98</v>
       </c>
@@ -2665,7 +2742,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>98</v>
       </c>
@@ -2679,7 +2756,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>98</v>
       </c>
@@ -2693,7 +2770,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>98</v>
       </c>
@@ -2707,7 +2784,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>98</v>
       </c>
@@ -2721,7 +2798,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>98</v>
       </c>
@@ -2735,7 +2812,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>98</v>
       </c>
@@ -2749,7 +2826,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>98</v>
       </c>
@@ -2763,7 +2840,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>98</v>
       </c>
@@ -2777,7 +2854,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>98</v>
       </c>
@@ -2791,7 +2868,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>98</v>
       </c>
@@ -2805,7 +2882,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>98</v>
       </c>
@@ -2819,7 +2896,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>98</v>
       </c>
@@ -2833,7 +2910,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>127</v>
       </c>
@@ -2847,7 +2924,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>127</v>
       </c>
@@ -2861,7 +2938,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>127</v>
       </c>
@@ -2875,7 +2952,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>127</v>
       </c>
@@ -2889,7 +2966,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>127</v>
       </c>
@@ -2903,7 +2980,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>127</v>
       </c>
@@ -2917,7 +2994,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>127</v>
       </c>
@@ -2931,7 +3008,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>127</v>
       </c>
@@ -2945,7 +3022,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>127</v>
       </c>
@@ -2959,7 +3036,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>127</v>
       </c>
@@ -2973,7 +3050,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>127</v>
       </c>
@@ -2987,7 +3064,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>127</v>
       </c>
@@ -3001,7 +3078,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>127</v>
       </c>
@@ -3015,7 +3092,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>127</v>
       </c>
@@ -3029,7 +3106,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>127</v>
       </c>
@@ -3043,7 +3120,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>127</v>
       </c>
@@ -3057,7 +3134,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>127</v>
       </c>
@@ -3071,7 +3148,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>127</v>
       </c>
@@ -3085,7 +3162,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>127</v>
       </c>
@@ -3099,7 +3176,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>127</v>
       </c>
@@ -3113,7 +3190,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>127</v>
       </c>
@@ -3127,7 +3204,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>127</v>
       </c>
@@ -3141,7 +3218,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>127</v>
       </c>
@@ -3155,7 +3232,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>127</v>
       </c>
@@ -3169,7 +3246,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>127</v>
       </c>
@@ -3183,7 +3260,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>127</v>
       </c>
@@ -3197,7 +3274,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>127</v>
       </c>
@@ -3211,7 +3288,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>127</v>
       </c>
@@ -3225,7 +3302,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>127</v>
       </c>
@@ -3239,7 +3316,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>127</v>
       </c>
@@ -3253,7 +3330,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>127</v>
       </c>
@@ -3267,7 +3344,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>127</v>
       </c>
@@ -3281,7 +3358,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>127</v>
       </c>
@@ -3295,7 +3372,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>127</v>
       </c>
@@ -3309,7 +3386,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>127</v>
       </c>
@@ -3323,7 +3400,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>127</v>
       </c>
@@ -3337,7 +3414,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>127</v>
       </c>
@@ -3351,7 +3428,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>127</v>
       </c>
@@ -3365,7 +3442,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>127</v>
       </c>
@@ -3379,7 +3456,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>127</v>
       </c>
@@ -3393,7 +3470,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>127</v>
       </c>
@@ -3407,7 +3484,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>127</v>
       </c>
@@ -3421,7 +3498,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>127</v>
       </c>
@@ -3435,7 +3512,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>127</v>
       </c>
@@ -3449,7 +3526,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>127</v>
       </c>
@@ -3463,7 +3540,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>127</v>
       </c>
@@ -3477,7 +3554,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>127</v>
       </c>
@@ -3491,7 +3568,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>127</v>
       </c>
@@ -3505,7 +3582,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>127</v>
       </c>
@@ -3519,7 +3596,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>127</v>
       </c>
@@ -3533,7 +3610,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>127</v>
       </c>
@@ -3547,7 +3624,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>127</v>
       </c>
@@ -3561,7 +3638,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>127</v>
       </c>
@@ -3575,7 +3652,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>127</v>
       </c>
@@ -3589,7 +3666,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>127</v>
       </c>
@@ -3603,7 +3680,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>127</v>
       </c>
@@ -3617,7 +3694,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>127</v>
       </c>
@@ -3631,7 +3708,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>127</v>
       </c>
@@ -3645,7 +3722,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>127</v>
       </c>
@@ -3659,7 +3736,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>127</v>
       </c>
@@ -3673,7 +3750,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>127</v>
       </c>
@@ -3687,7 +3764,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>127</v>
       </c>
@@ -3701,7 +3778,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>127</v>
       </c>
@@ -3715,7 +3792,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>127</v>
       </c>
@@ -3729,7 +3806,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>127</v>
       </c>
@@ -3743,7 +3820,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>127</v>
       </c>
@@ -3757,7 +3834,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>127</v>
       </c>
@@ -3771,7 +3848,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>127</v>
       </c>
@@ -3785,7 +3862,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>127</v>
       </c>
@@ -3799,7 +3876,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>127</v>
       </c>
@@ -3813,7 +3890,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>127</v>
       </c>
@@ -3827,7 +3904,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>127</v>
       </c>
@@ -3841,7 +3918,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>127</v>
       </c>
@@ -3855,7 +3932,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>127</v>
       </c>
@@ -3869,7 +3946,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>127</v>
       </c>
@@ -3883,7 +3960,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>127</v>
       </c>
@@ -3897,7 +3974,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>12</v>
       </c>
@@ -3911,7 +3988,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>12</v>
       </c>
@@ -3925,7 +4002,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>12</v>
       </c>
@@ -3939,7 +4016,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>12</v>
       </c>
@@ -3953,7 +4030,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>12</v>
       </c>
@@ -3967,7 +4044,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>12</v>
       </c>
@@ -3981,7 +4058,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>12</v>
       </c>
@@ -3995,7 +4072,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>12</v>
       </c>
@@ -4009,7 +4086,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>12</v>
       </c>
@@ -4023,7 +4100,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>12</v>
       </c>
@@ -4034,10 +4111,10 @@
         <v>6</v>
       </c>
       <c r="D217" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>12</v>
       </c>
@@ -4048,10 +4125,10 @@
         <v>6</v>
       </c>
       <c r="D218" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>12</v>
       </c>
@@ -4065,7 +4142,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>12</v>
       </c>
@@ -4079,7 +4156,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>12</v>
       </c>
@@ -4093,7 +4170,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -4107,7 +4184,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>0</v>
       </c>
@@ -4121,7 +4198,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>0</v>
       </c>
@@ -4135,7 +4212,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>0</v>
       </c>
@@ -4149,7 +4226,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>0</v>
       </c>
@@ -4163,7 +4240,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>0</v>
       </c>
@@ -4177,7 +4254,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>0</v>
       </c>
@@ -4191,7 +4268,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -4205,7 +4282,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -4219,7 +4296,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>142</v>
       </c>
@@ -4233,7 +4310,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>142</v>
       </c>
@@ -4247,7 +4324,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>142</v>
       </c>
@@ -4261,7 +4338,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>142</v>
       </c>
@@ -4275,7 +4352,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>142</v>
       </c>
@@ -4289,7 +4366,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>142</v>
       </c>
@@ -4303,7 +4380,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>142</v>
       </c>
@@ -4317,7 +4394,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>142</v>
       </c>
@@ -4331,7 +4408,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>142</v>
       </c>
@@ -4342,10 +4419,10 @@
         <v>6</v>
       </c>
       <c r="D239" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>142</v>
       </c>
@@ -4356,10 +4433,10 @@
         <v>6</v>
       </c>
       <c r="D240" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>142</v>
       </c>
@@ -4373,7 +4450,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>142</v>
       </c>
@@ -4387,7 +4464,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>142</v>
       </c>
@@ -4401,7 +4478,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>142</v>
       </c>
@@ -4415,7 +4492,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>142</v>
       </c>
@@ -4429,7 +4506,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>142</v>
       </c>
@@ -4443,7 +4520,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>142</v>
       </c>
@@ -4457,7 +4534,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>142</v>
       </c>
@@ -4471,7 +4548,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>142</v>
       </c>
@@ -4485,7 +4562,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>142</v>
       </c>
@@ -4499,7 +4576,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>142</v>
       </c>
@@ -4513,7 +4590,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>142</v>
       </c>
@@ -4527,7 +4604,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>142</v>
       </c>
@@ -4541,7 +4618,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>12</v>
       </c>
@@ -4555,7 +4632,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>12</v>
       </c>
@@ -4569,7 +4646,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>12</v>
       </c>
@@ -4583,7 +4660,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>12</v>
       </c>
@@ -4597,7 +4674,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>12</v>
       </c>
@@ -4611,7 +4688,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>12</v>
       </c>
@@ -4625,7 +4702,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>12</v>
       </c>
@@ -4639,7 +4716,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>12</v>
       </c>
@@ -4653,7 +4730,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>12</v>
       </c>
@@ -4667,7 +4744,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>12</v>
       </c>
@@ -4678,10 +4755,10 @@
         <v>6</v>
       </c>
       <c r="D263" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>12</v>
       </c>
@@ -4692,10 +4769,10 @@
         <v>6</v>
       </c>
       <c r="D264" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>12</v>
       </c>
@@ -4709,7 +4786,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>12</v>
       </c>
@@ -4723,7 +4800,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>12</v>
       </c>
@@ -4737,7 +4814,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>149</v>
       </c>
@@ -4751,7 +4828,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>149</v>
       </c>
@@ -4765,7 +4842,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>149</v>
       </c>
@@ -4776,10 +4853,10 @@
         <v>6</v>
       </c>
       <c r="D270" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>149</v>
       </c>
@@ -4793,7 +4870,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>149</v>
       </c>
@@ -4807,7 +4884,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>149</v>
       </c>
@@ -4821,7 +4898,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>149</v>
       </c>
@@ -4835,7 +4912,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>149</v>
       </c>
@@ -4849,7 +4926,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>149</v>
       </c>
@@ -4863,7 +4940,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>149</v>
       </c>
@@ -4877,7 +4954,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>149</v>
       </c>
@@ -4891,7 +4968,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>149</v>
       </c>
@@ -4905,7 +4982,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>149</v>
       </c>
@@ -4919,7 +4996,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>149</v>
       </c>
@@ -4933,7 +5010,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>149</v>
       </c>
@@ -4947,7 +5024,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>149</v>
       </c>
@@ -4961,7 +5038,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>149</v>
       </c>
@@ -4975,7 +5052,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>149</v>
       </c>
@@ -4989,7 +5066,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>149</v>
       </c>
@@ -5003,7 +5080,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>149</v>
       </c>
@@ -5017,7 +5094,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>149</v>
       </c>
@@ -5031,7 +5108,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>149</v>
       </c>
@@ -5045,7 +5122,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>149</v>
       </c>
@@ -5059,7 +5136,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>149</v>
       </c>
@@ -5073,7 +5150,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>149</v>
       </c>
@@ -5087,7 +5164,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>149</v>
       </c>
@@ -5101,7 +5178,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>149</v>
       </c>
@@ -5115,7 +5192,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>149</v>
       </c>
@@ -5129,7 +5206,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>149</v>
       </c>
@@ -5143,7 +5220,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>149</v>
       </c>
@@ -5157,7 +5234,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>149</v>
       </c>
@@ -5171,7 +5248,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>149</v>
       </c>
@@ -5185,7 +5262,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>149</v>
       </c>
@@ -5199,7 +5276,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>149</v>
       </c>
@@ -5213,7 +5290,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>149</v>
       </c>
@@ -5227,7 +5304,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>149</v>
       </c>
@@ -5241,7 +5318,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>149</v>
       </c>
@@ -5255,7 +5332,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>149</v>
       </c>
@@ -5269,7 +5346,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>149</v>
       </c>
@@ -5283,7 +5360,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>149</v>
       </c>
@@ -5297,7 +5374,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>149</v>
       </c>
@@ -5311,7 +5388,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>149</v>
       </c>
@@ -5325,7 +5402,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>149</v>
       </c>
@@ -5339,7 +5416,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>149</v>
       </c>
@@ -5353,7 +5430,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>149</v>
       </c>
@@ -5367,7 +5444,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>149</v>
       </c>
@@ -5381,7 +5458,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>149</v>
       </c>

--- a/UBW_API_obfuscation.xlsx
+++ b/UBW_API_obfuscation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\caelum\repos\ubw-json-to-csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22708292-6536-4C30-8562-C93B01F8C83F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB6A68E-ABAE-42CC-9EB5-BEDD6B374C90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E359F6E6-FAED-4DFB-A65F-3A9FAAFC7674}"/>
   </bookViews>
@@ -748,13 +748,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B8EA1511-AC03-45EB-A53D-C671DD23BB56}" name="Table2" displayName="Table2" ref="A1:D314" totalsRowShown="0">
-  <autoFilter ref="A1:D314" xr:uid="{672F1336-0EA8-4C3A-BF2C-1C5DB13BB90D}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="IDMap(OrigVal)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D314" xr:uid="{672F1336-0EA8-4C3A-BF2C-1C5DB13BB90D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0777AB4E-CF51-4EC8-9CE1-746BE7384A9D}" name="Entity"/>
     <tableColumn id="2" xr3:uid="{035C578C-7EB7-45D3-9D37-4F7F79530094}" name="Column"/>
@@ -1064,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D470FD1-C6CF-4501-9AD3-3D94C38C26EC}">
   <dimension ref="A1:D314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1090,7 +1084,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1098,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1118,7 +1112,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1126,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +1140,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1168,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1188,7 +1182,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1202,7 +1196,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1266,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1286,7 +1280,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1300,7 +1294,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1328,7 +1322,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1342,7 +1336,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1356,7 +1350,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1370,7 +1364,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1384,7 +1378,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1398,7 +1392,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1412,7 +1406,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1426,7 +1420,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1454,7 +1448,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1468,7 +1462,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1482,7 +1476,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1496,7 +1490,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1510,7 +1504,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -1524,7 +1518,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -1538,7 +1532,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1552,7 +1546,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -1566,7 +1560,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -1580,7 +1574,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -1594,7 +1588,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1636,7 +1630,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -1650,7 +1644,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -1664,7 +1658,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -1678,7 +1672,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -1692,7 +1686,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -1706,7 +1700,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -1720,7 +1714,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -1734,7 +1728,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -1748,7 +1742,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -1762,7 +1756,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -1776,7 +1770,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -1790,7 +1784,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -1804,7 +1798,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -1818,7 +1812,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -1832,7 +1826,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -1860,7 +1854,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -1874,7 +1868,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -1888,7 +1882,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -1902,7 +1896,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -1916,7 +1910,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -1930,7 +1924,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -1944,7 +1938,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -1958,7 +1952,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -1972,7 +1966,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>24</v>
       </c>
@@ -1986,7 +1980,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>24</v>
       </c>
@@ -2000,7 +1994,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -2014,7 +2008,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>24</v>
       </c>
@@ -2028,7 +2022,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -2042,7 +2036,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -2056,7 +2050,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -2070,7 +2064,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -2084,7 +2078,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -2098,7 +2092,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -2126,7 +2120,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>24</v>
       </c>
@@ -2140,7 +2134,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -2154,7 +2148,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -2168,7 +2162,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -2182,7 +2176,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -2196,7 +2190,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>24</v>
       </c>
@@ -2210,7 +2204,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>24</v>
       </c>
@@ -2224,7 +2218,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>24</v>
       </c>
@@ -2238,7 +2232,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>24</v>
       </c>
@@ -2252,7 +2246,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>24</v>
       </c>
@@ -2266,7 +2260,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>24</v>
       </c>
@@ -2280,7 +2274,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>24</v>
       </c>
@@ -2294,7 +2288,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>24</v>
       </c>
@@ -2308,7 +2302,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -2322,7 +2316,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>24</v>
       </c>
@@ -2336,7 +2330,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -2350,7 +2344,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>24</v>
       </c>
@@ -2364,7 +2358,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>24</v>
       </c>
@@ -2378,7 +2372,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>24</v>
       </c>
@@ -2392,7 +2386,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>24</v>
       </c>
@@ -2406,7 +2400,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>24</v>
       </c>
@@ -2420,7 +2414,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -2434,7 +2428,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>24</v>
       </c>
@@ -2448,7 +2442,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>24</v>
       </c>
@@ -2462,7 +2456,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>24</v>
       </c>
@@ -2504,7 +2498,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>98</v>
       </c>
@@ -2532,7 +2526,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>98</v>
       </c>
@@ -2546,7 +2540,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>98</v>
       </c>
@@ -2560,7 +2554,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>98</v>
       </c>
@@ -2574,7 +2568,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>98</v>
       </c>
@@ -2588,7 +2582,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>98</v>
       </c>
@@ -2602,7 +2596,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>98</v>
       </c>
@@ -2616,7 +2610,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>98</v>
       </c>
@@ -2630,7 +2624,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>98</v>
       </c>
@@ -2644,7 +2638,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>98</v>
       </c>
@@ -2658,7 +2652,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>98</v>
       </c>
@@ -2672,7 +2666,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>98</v>
       </c>
@@ -2686,7 +2680,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>98</v>
       </c>
@@ -2700,7 +2694,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>98</v>
       </c>
@@ -2714,7 +2708,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>98</v>
       </c>
@@ -2728,7 +2722,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>98</v>
       </c>
@@ -2742,7 +2736,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>98</v>
       </c>
@@ -2756,7 +2750,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>98</v>
       </c>
@@ -2798,7 +2792,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>98</v>
       </c>
@@ -2812,7 +2806,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>98</v>
       </c>
@@ -2826,7 +2820,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>98</v>
       </c>
@@ -2840,7 +2834,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>98</v>
       </c>
@@ -2854,7 +2848,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>98</v>
       </c>
@@ -2868,7 +2862,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>98</v>
       </c>
@@ -2882,7 +2876,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>98</v>
       </c>
@@ -2896,7 +2890,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>98</v>
       </c>
@@ -2910,7 +2904,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>127</v>
       </c>
@@ -2924,7 +2918,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>127</v>
       </c>
@@ -2952,7 +2946,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>127</v>
       </c>
@@ -2966,7 +2960,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>127</v>
       </c>
@@ -2980,7 +2974,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>127</v>
       </c>
@@ -2994,7 +2988,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>127</v>
       </c>
@@ -3008,7 +3002,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>127</v>
       </c>
@@ -3022,7 +3016,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>127</v>
       </c>
@@ -3036,7 +3030,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>127</v>
       </c>
@@ -3050,7 +3044,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>127</v>
       </c>
@@ -3064,7 +3058,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>127</v>
       </c>
@@ -3078,7 +3072,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>127</v>
       </c>
@@ -3092,7 +3086,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>127</v>
       </c>
@@ -3106,7 +3100,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>127</v>
       </c>
@@ -3120,7 +3114,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>127</v>
       </c>
@@ -3134,7 +3128,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>127</v>
       </c>
@@ -3148,7 +3142,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>127</v>
       </c>
@@ -3162,7 +3156,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>127</v>
       </c>
@@ -3176,7 +3170,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>127</v>
       </c>
@@ -3190,7 +3184,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>127</v>
       </c>
@@ -3204,7 +3198,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>127</v>
       </c>
@@ -3218,7 +3212,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>127</v>
       </c>
@@ -3232,7 +3226,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>127</v>
       </c>
@@ -3246,7 +3240,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>127</v>
       </c>
@@ -3260,7 +3254,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>127</v>
       </c>
@@ -3274,7 +3268,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>127</v>
       </c>
@@ -3288,7 +3282,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>127</v>
       </c>
@@ -3302,7 +3296,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>127</v>
       </c>
@@ -3316,7 +3310,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>127</v>
       </c>
@@ -3330,7 +3324,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>127</v>
       </c>
@@ -3344,7 +3338,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>127</v>
       </c>
@@ -3358,7 +3352,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>127</v>
       </c>
@@ -3372,7 +3366,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>127</v>
       </c>
@@ -3386,7 +3380,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>127</v>
       </c>
@@ -3400,7 +3394,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>127</v>
       </c>
@@ -3414,7 +3408,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>127</v>
       </c>
@@ -3428,7 +3422,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>127</v>
       </c>
@@ -3442,7 +3436,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>127</v>
       </c>
@@ -3456,7 +3450,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>127</v>
       </c>
@@ -3470,7 +3464,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>127</v>
       </c>
@@ -3484,7 +3478,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>127</v>
       </c>
@@ -3498,7 +3492,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>127</v>
       </c>
@@ -3512,7 +3506,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>127</v>
       </c>
@@ -3526,7 +3520,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>127</v>
       </c>
@@ -3540,7 +3534,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>127</v>
       </c>
@@ -3554,7 +3548,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>127</v>
       </c>
@@ -3568,7 +3562,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>127</v>
       </c>
@@ -3582,7 +3576,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>127</v>
       </c>
@@ -3596,7 +3590,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>127</v>
       </c>
@@ -3610,7 +3604,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>127</v>
       </c>
@@ -3624,7 +3618,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>127</v>
       </c>
@@ -3638,7 +3632,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>127</v>
       </c>
@@ -3652,7 +3646,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>127</v>
       </c>
@@ -3666,7 +3660,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>127</v>
       </c>
@@ -3680,7 +3674,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>127</v>
       </c>
@@ -3694,7 +3688,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>127</v>
       </c>
@@ -3708,7 +3702,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>127</v>
       </c>
@@ -3722,7 +3716,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>127</v>
       </c>
@@ -3736,7 +3730,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>127</v>
       </c>
@@ -3750,7 +3744,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>127</v>
       </c>
@@ -3764,7 +3758,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>127</v>
       </c>
@@ -3778,7 +3772,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>127</v>
       </c>
@@ -3792,7 +3786,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>127</v>
       </c>
@@ -3806,7 +3800,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>127</v>
       </c>
@@ -3820,7 +3814,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>127</v>
       </c>
@@ -3834,7 +3828,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>127</v>
       </c>
@@ -3848,7 +3842,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>127</v>
       </c>
@@ -3862,7 +3856,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>127</v>
       </c>
@@ -3876,7 +3870,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>127</v>
       </c>
@@ -3890,7 +3884,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>127</v>
       </c>
@@ -3904,7 +3898,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>127</v>
       </c>
@@ -3918,7 +3912,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>127</v>
       </c>
@@ -3932,7 +3926,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>127</v>
       </c>
@@ -3946,7 +3940,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>127</v>
       </c>
@@ -3960,7 +3954,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>127</v>
       </c>
@@ -3974,7 +3968,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>12</v>
       </c>
@@ -3988,7 +3982,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>12</v>
       </c>
@@ -4002,7 +3996,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>12</v>
       </c>
@@ -4030,7 +4024,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>12</v>
       </c>
@@ -4044,7 +4038,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>12</v>
       </c>
@@ -4058,7 +4052,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>12</v>
       </c>
@@ -4072,7 +4066,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>12</v>
       </c>
@@ -4086,7 +4080,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>12</v>
       </c>
@@ -4100,7 +4094,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>12</v>
       </c>
@@ -4114,7 +4108,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>12</v>
       </c>
@@ -4128,7 +4122,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>12</v>
       </c>
@@ -4142,7 +4136,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>12</v>
       </c>
@@ -4156,7 +4150,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>12</v>
       </c>
@@ -4170,7 +4164,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -4184,7 +4178,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>0</v>
       </c>
@@ -4198,7 +4192,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>0</v>
       </c>
@@ -4212,7 +4206,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>0</v>
       </c>
@@ -4226,7 +4220,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>0</v>
       </c>
@@ -4254,7 +4248,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>0</v>
       </c>
@@ -4268,7 +4262,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -4282,7 +4276,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -4296,7 +4290,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>142</v>
       </c>
@@ -4310,7 +4304,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>142</v>
       </c>
@@ -4324,7 +4318,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>142</v>
       </c>
@@ -4338,7 +4332,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>142</v>
       </c>
@@ -4352,7 +4346,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>142</v>
       </c>
@@ -4366,7 +4360,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>142</v>
       </c>
@@ -4380,7 +4374,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>142</v>
       </c>
@@ -4394,7 +4388,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>142</v>
       </c>
@@ -4408,7 +4402,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>142</v>
       </c>
@@ -4422,7 +4416,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>142</v>
       </c>
@@ -4436,7 +4430,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>142</v>
       </c>
@@ -4450,7 +4444,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>142</v>
       </c>
@@ -4464,7 +4458,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>142</v>
       </c>
@@ -4478,7 +4472,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>142</v>
       </c>
@@ -4492,7 +4486,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>142</v>
       </c>
@@ -4506,7 +4500,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>142</v>
       </c>
@@ -4520,7 +4514,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>142</v>
       </c>
@@ -4534,7 +4528,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>142</v>
       </c>
@@ -4548,7 +4542,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>142</v>
       </c>
@@ -4562,7 +4556,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>142</v>
       </c>
@@ -4576,7 +4570,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>142</v>
       </c>
@@ -4590,7 +4584,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>142</v>
       </c>
@@ -4604,7 +4598,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>142</v>
       </c>
@@ -4674,7 +4668,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>12</v>
       </c>
@@ -4688,7 +4682,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>12</v>
       </c>
@@ -4702,7 +4696,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>12</v>
       </c>
@@ -4716,7 +4710,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>12</v>
       </c>
@@ -4730,7 +4724,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>12</v>
       </c>
@@ -4744,7 +4738,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>12</v>
       </c>
@@ -4758,7 +4752,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>12</v>
       </c>
@@ -4772,7 +4766,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>12</v>
       </c>
@@ -4786,7 +4780,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>12</v>
       </c>
@@ -4800,7 +4794,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>12</v>
       </c>
@@ -4814,7 +4808,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>149</v>
       </c>
@@ -4842,7 +4836,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>149</v>
       </c>
@@ -4856,7 +4850,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>149</v>
       </c>
@@ -4870,7 +4864,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>149</v>
       </c>
@@ -4884,7 +4878,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>149</v>
       </c>
@@ -4898,7 +4892,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>149</v>
       </c>
@@ -4912,7 +4906,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>149</v>
       </c>
@@ -4926,7 +4920,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>149</v>
       </c>
@@ -5178,7 +5172,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>149</v>
       </c>
@@ -5192,7 +5186,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>149</v>
       </c>
@@ -5206,7 +5200,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>149</v>
       </c>
@@ -5220,7 +5214,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>149</v>
       </c>
@@ -5234,7 +5228,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>149</v>
       </c>
@@ -5248,7 +5242,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>149</v>
       </c>
@@ -5262,7 +5256,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>149</v>
       </c>
@@ -5276,7 +5270,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>149</v>
       </c>
@@ -5290,7 +5284,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>149</v>
       </c>
@@ -5304,7 +5298,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>149</v>
       </c>
@@ -5318,7 +5312,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>149</v>
       </c>
@@ -5332,7 +5326,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>149</v>
       </c>
@@ -5346,7 +5340,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>149</v>
       </c>
@@ -5360,7 +5354,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>149</v>
       </c>
@@ -5374,7 +5368,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>149</v>
       </c>
@@ -5388,7 +5382,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>149</v>
       </c>
@@ -5402,7 +5396,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>149</v>
       </c>
@@ -5416,7 +5410,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>149</v>
       </c>
@@ -5430,7 +5424,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>149</v>
       </c>
@@ -5444,7 +5438,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>149</v>
       </c>
@@ -5458,7 +5452,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>149</v>
       </c>

--- a/UBW_API_obfuscation.xlsx
+++ b/UBW_API_obfuscation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\caelum\repos\ubw-json-to-csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB6A68E-ABAE-42CC-9EB5-BEDD6B374C90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92D1770-C388-4723-869D-97EE2732B7CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E359F6E6-FAED-4DFB-A65F-3A9FAAFC7674}"/>
   </bookViews>
@@ -748,7 +748,19 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B8EA1511-AC03-45EB-A53D-C671DD23BB56}" name="Table2" displayName="Table2" ref="A1:D314" totalsRowShown="0">
-  <autoFilter ref="A1:D314" xr:uid="{672F1336-0EA8-4C3A-BF2C-1C5DB13BB90D}"/>
+  <autoFilter ref="A1:D314" xr:uid="{672F1336-0EA8-4C3A-BF2C-1C5DB13BB90D}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="suppliers"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="DateObfuscation(OrigVal, 90)"/>
+        <filter val="DatetimeObfuscation(OrigVal, 90)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0777AB4E-CF51-4EC8-9CE1-746BE7384A9D}" name="Entity"/>
     <tableColumn id="2" xr3:uid="{035C578C-7EB7-45D3-9D37-4F7F79530094}" name="Column"/>
@@ -1058,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D470FD1-C6CF-4501-9AD3-3D94C38C26EC}">
   <dimension ref="A1:D314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1084,7 +1096,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1110,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1124,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1138,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1140,7 +1152,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1154,7 +1166,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1180,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1194,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1196,7 +1208,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1222,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1224,7 +1236,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1238,7 +1250,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1252,7 +1264,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1266,7 +1278,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1280,7 +1292,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1294,7 +1306,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1308,7 +1320,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1322,7 +1334,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1336,7 +1348,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1350,7 +1362,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1364,7 +1376,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1378,7 +1390,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1392,7 +1404,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1406,7 +1418,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1420,7 +1432,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1434,7 +1446,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1448,7 +1460,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1462,7 +1474,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1476,7 +1488,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1490,7 +1502,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1504,7 +1516,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -1518,7 +1530,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -1532,7 +1544,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1546,7 +1558,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -1560,7 +1572,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -1574,7 +1586,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -1588,7 +1600,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1602,7 +1614,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -1616,7 +1628,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -1630,7 +1642,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -1644,7 +1656,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -1658,7 +1670,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -1672,7 +1684,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -1686,7 +1698,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -1700,7 +1712,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -1714,7 +1726,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -1728,7 +1740,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -1742,7 +1754,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -1756,7 +1768,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -1770,7 +1782,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -1784,7 +1796,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -1798,7 +1810,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -1812,7 +1824,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -1826,7 +1838,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -1840,7 +1852,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -1854,7 +1866,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -1868,7 +1880,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -1882,7 +1894,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -1896,7 +1908,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -1910,7 +1922,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -1924,7 +1936,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -1938,7 +1950,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -1952,7 +1964,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -1966,7 +1978,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>24</v>
       </c>
@@ -1980,7 +1992,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>24</v>
       </c>
@@ -1994,7 +2006,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -2008,7 +2020,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>24</v>
       </c>
@@ -2022,7 +2034,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -2036,7 +2048,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -2050,7 +2062,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -2064,7 +2076,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -2078,7 +2090,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -2092,7 +2104,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -2106,7 +2118,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -2120,7 +2132,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>24</v>
       </c>
@@ -2134,7 +2146,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -2148,7 +2160,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -2162,7 +2174,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -2176,7 +2188,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -2190,7 +2202,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>24</v>
       </c>
@@ -2204,7 +2216,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>24</v>
       </c>
@@ -2218,7 +2230,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>24</v>
       </c>
@@ -2232,7 +2244,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>24</v>
       </c>
@@ -2246,7 +2258,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>24</v>
       </c>
@@ -2260,7 +2272,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>24</v>
       </c>
@@ -2274,7 +2286,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>24</v>
       </c>
@@ -2288,7 +2300,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>24</v>
       </c>
@@ -2302,7 +2314,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -2316,7 +2328,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>24</v>
       </c>
@@ -2330,7 +2342,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -2344,7 +2356,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>24</v>
       </c>
@@ -2358,7 +2370,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>24</v>
       </c>
@@ -2372,7 +2384,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>24</v>
       </c>
@@ -2386,7 +2398,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>24</v>
       </c>
@@ -2400,7 +2412,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>24</v>
       </c>
@@ -2414,7 +2426,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -2428,7 +2440,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>24</v>
       </c>
@@ -2442,7 +2454,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>24</v>
       </c>
@@ -2456,7 +2468,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>24</v>
       </c>
@@ -2470,7 +2482,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -2484,7 +2496,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -2498,7 +2510,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>98</v>
       </c>
@@ -2512,7 +2524,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>98</v>
       </c>
@@ -2526,7 +2538,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>98</v>
       </c>
@@ -2540,7 +2552,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>98</v>
       </c>
@@ -2554,7 +2566,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>98</v>
       </c>
@@ -2568,7 +2580,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>98</v>
       </c>
@@ -2582,7 +2594,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>98</v>
       </c>
@@ -2596,7 +2608,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>98</v>
       </c>
@@ -2610,7 +2622,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>98</v>
       </c>
@@ -2624,7 +2636,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>98</v>
       </c>
@@ -2638,7 +2650,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>98</v>
       </c>
@@ -2652,7 +2664,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>98</v>
       </c>
@@ -2666,7 +2678,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>98</v>
       </c>
@@ -2680,7 +2692,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>98</v>
       </c>
@@ -2694,7 +2706,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>98</v>
       </c>
@@ -2708,7 +2720,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>98</v>
       </c>
@@ -2722,7 +2734,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>98</v>
       </c>
@@ -2736,7 +2748,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>98</v>
       </c>
@@ -2750,7 +2762,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>98</v>
       </c>
@@ -2764,7 +2776,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>98</v>
       </c>
@@ -2778,7 +2790,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>98</v>
       </c>
@@ -2792,7 +2804,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>98</v>
       </c>
@@ -2806,7 +2818,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>98</v>
       </c>
@@ -2820,7 +2832,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>98</v>
       </c>
@@ -2834,7 +2846,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>98</v>
       </c>
@@ -2848,7 +2860,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>98</v>
       </c>
@@ -2862,7 +2874,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>98</v>
       </c>
@@ -2876,7 +2888,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>98</v>
       </c>
@@ -2890,7 +2902,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>98</v>
       </c>
@@ -2904,7 +2916,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>127</v>
       </c>
@@ -2918,7 +2930,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>127</v>
       </c>
@@ -2932,7 +2944,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>127</v>
       </c>
@@ -2946,7 +2958,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>127</v>
       </c>
@@ -2960,7 +2972,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>127</v>
       </c>
@@ -2974,7 +2986,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>127</v>
       </c>
@@ -2999,10 +3011,10 @@
         <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>127</v>
       </c>
@@ -3016,7 +3028,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>127</v>
       </c>
@@ -3030,7 +3042,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>127</v>
       </c>
@@ -3044,7 +3056,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>127</v>
       </c>
@@ -3058,7 +3070,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>127</v>
       </c>
@@ -3072,7 +3084,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>127</v>
       </c>
@@ -3086,7 +3098,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>127</v>
       </c>
@@ -3100,7 +3112,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>127</v>
       </c>
@@ -3114,7 +3126,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>127</v>
       </c>
@@ -3128,7 +3140,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>127</v>
       </c>
@@ -3142,7 +3154,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>127</v>
       </c>
@@ -3156,7 +3168,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>127</v>
       </c>
@@ -3170,7 +3182,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>127</v>
       </c>
@@ -3184,7 +3196,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>127</v>
       </c>
@@ -3198,7 +3210,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>127</v>
       </c>
@@ -3212,7 +3224,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>127</v>
       </c>
@@ -3226,7 +3238,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>127</v>
       </c>
@@ -3240,7 +3252,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>127</v>
       </c>
@@ -3254,7 +3266,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>127</v>
       </c>
@@ -3268,7 +3280,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>127</v>
       </c>
@@ -3282,7 +3294,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>127</v>
       </c>
@@ -3296,7 +3308,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>127</v>
       </c>
@@ -3310,7 +3322,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>127</v>
       </c>
@@ -3324,7 +3336,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>127</v>
       </c>
@@ -3338,7 +3350,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>127</v>
       </c>
@@ -3352,7 +3364,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>127</v>
       </c>
@@ -3366,7 +3378,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>127</v>
       </c>
@@ -3380,7 +3392,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>127</v>
       </c>
@@ -3394,7 +3406,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>127</v>
       </c>
@@ -3408,7 +3420,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>127</v>
       </c>
@@ -3422,7 +3434,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>127</v>
       </c>
@@ -3436,7 +3448,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>127</v>
       </c>
@@ -3450,7 +3462,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>127</v>
       </c>
@@ -3464,7 +3476,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>127</v>
       </c>
@@ -3478,7 +3490,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>127</v>
       </c>
@@ -3492,7 +3504,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>127</v>
       </c>
@@ -3520,7 +3532,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>127</v>
       </c>
@@ -3545,7 +3557,7 @@
         <v>2</v>
       </c>
       <c r="D177" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
@@ -3559,10 +3571,10 @@
         <v>2</v>
       </c>
       <c r="D178" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>127</v>
       </c>
@@ -3576,7 +3588,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>127</v>
       </c>
@@ -3590,7 +3602,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>127</v>
       </c>
@@ -3604,7 +3616,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>127</v>
       </c>
@@ -3618,7 +3630,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>127</v>
       </c>
@@ -3632,7 +3644,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>127</v>
       </c>
@@ -3646,7 +3658,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>127</v>
       </c>
@@ -3660,7 +3672,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>127</v>
       </c>
@@ -3674,7 +3686,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>127</v>
       </c>
@@ -3688,7 +3700,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>127</v>
       </c>
@@ -3702,7 +3714,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>127</v>
       </c>
@@ -3716,7 +3728,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>127</v>
       </c>
@@ -3730,7 +3742,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>127</v>
       </c>
@@ -3744,7 +3756,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>127</v>
       </c>
@@ -3758,7 +3770,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>127</v>
       </c>
@@ -3772,7 +3784,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>127</v>
       </c>
@@ -3786,7 +3798,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>127</v>
       </c>
@@ -3800,7 +3812,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>127</v>
       </c>
@@ -3814,7 +3826,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>127</v>
       </c>
@@ -3828,7 +3840,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>127</v>
       </c>
@@ -3842,7 +3854,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>127</v>
       </c>
@@ -3856,7 +3868,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>127</v>
       </c>
@@ -3870,7 +3882,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>127</v>
       </c>
@@ -3884,7 +3896,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>127</v>
       </c>
@@ -3898,7 +3910,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>127</v>
       </c>
@@ -3926,7 +3938,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>127</v>
       </c>
@@ -3940,7 +3952,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>127</v>
       </c>
@@ -3954,7 +3966,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>127</v>
       </c>
@@ -3968,7 +3980,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>12</v>
       </c>
@@ -3982,7 +3994,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>12</v>
       </c>
@@ -3996,7 +4008,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>12</v>
       </c>
@@ -4010,7 +4022,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>12</v>
       </c>
@@ -4024,7 +4036,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>12</v>
       </c>
@@ -4038,7 +4050,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>12</v>
       </c>
@@ -4052,7 +4064,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>12</v>
       </c>
@@ -4066,7 +4078,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>12</v>
       </c>
@@ -4080,7 +4092,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>12</v>
       </c>
@@ -4094,7 +4106,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>12</v>
       </c>
@@ -4108,7 +4120,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>12</v>
       </c>
@@ -4122,7 +4134,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>12</v>
       </c>
@@ -4136,7 +4148,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>12</v>
       </c>
@@ -4150,7 +4162,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>12</v>
       </c>
@@ -4164,7 +4176,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -4178,7 +4190,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>0</v>
       </c>
@@ -4192,7 +4204,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>0</v>
       </c>
@@ -4206,7 +4218,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>0</v>
       </c>
@@ -4220,7 +4232,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>0</v>
       </c>
@@ -4234,7 +4246,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>0</v>
       </c>
@@ -4248,7 +4260,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>0</v>
       </c>
@@ -4262,7 +4274,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -4276,7 +4288,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -4290,7 +4302,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>142</v>
       </c>
@@ -4304,7 +4316,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>142</v>
       </c>
@@ -4318,7 +4330,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>142</v>
       </c>
@@ -4332,7 +4344,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>142</v>
       </c>
@@ -4346,7 +4358,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>142</v>
       </c>
@@ -4360,7 +4372,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>142</v>
       </c>
@@ -4374,7 +4386,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>142</v>
       </c>
@@ -4388,7 +4400,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>142</v>
       </c>
@@ -4402,7 +4414,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>142</v>
       </c>
@@ -4416,7 +4428,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>142</v>
       </c>
@@ -4430,7 +4442,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>142</v>
       </c>
@@ -4444,7 +4456,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>142</v>
       </c>
@@ -4458,7 +4470,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>142</v>
       </c>
@@ -4472,7 +4484,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>142</v>
       </c>
@@ -4486,7 +4498,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>142</v>
       </c>
@@ -4500,7 +4512,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>142</v>
       </c>
@@ -4514,7 +4526,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>142</v>
       </c>
@@ -4528,7 +4540,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>142</v>
       </c>
@@ -4542,7 +4554,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>142</v>
       </c>
@@ -4556,7 +4568,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>142</v>
       </c>
@@ -4570,7 +4582,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>142</v>
       </c>
@@ -4584,7 +4596,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>142</v>
       </c>
@@ -4598,7 +4610,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>142</v>
       </c>
@@ -4612,7 +4624,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>12</v>
       </c>
@@ -4626,7 +4638,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>12</v>
       </c>
@@ -4640,7 +4652,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>12</v>
       </c>
@@ -4654,7 +4666,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>12</v>
       </c>
@@ -4668,7 +4680,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>12</v>
       </c>
@@ -4682,7 +4694,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>12</v>
       </c>
@@ -4696,7 +4708,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>12</v>
       </c>
@@ -4710,7 +4722,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>12</v>
       </c>
@@ -4724,7 +4736,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>12</v>
       </c>
@@ -4738,7 +4750,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>12</v>
       </c>
@@ -4752,7 +4764,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>12</v>
       </c>
@@ -4766,7 +4778,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>12</v>
       </c>
@@ -4780,7 +4792,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>12</v>
       </c>
@@ -4794,7 +4806,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>12</v>
       </c>
@@ -4808,7 +4820,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>149</v>
       </c>
@@ -4822,7 +4834,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>149</v>
       </c>
@@ -4836,7 +4848,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>149</v>
       </c>
@@ -4850,7 +4862,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>149</v>
       </c>
@@ -4864,7 +4876,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>149</v>
       </c>
@@ -4878,7 +4890,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>149</v>
       </c>
@@ -4892,7 +4904,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>149</v>
       </c>
@@ -4906,7 +4918,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>149</v>
       </c>
@@ -4920,7 +4932,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>149</v>
       </c>
@@ -4934,7 +4946,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>149</v>
       </c>
@@ -4948,7 +4960,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>149</v>
       </c>
@@ -4962,7 +4974,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>149</v>
       </c>
@@ -4976,7 +4988,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>149</v>
       </c>
@@ -4990,7 +5002,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>149</v>
       </c>
@@ -5004,7 +5016,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>149</v>
       </c>
@@ -5018,7 +5030,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>149</v>
       </c>
@@ -5032,7 +5044,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>149</v>
       </c>
@@ -5046,7 +5058,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>149</v>
       </c>
@@ -5060,7 +5072,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>149</v>
       </c>
@@ -5074,7 +5086,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>149</v>
       </c>
@@ -5088,7 +5100,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>149</v>
       </c>
@@ -5102,7 +5114,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>149</v>
       </c>
@@ -5116,7 +5128,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>149</v>
       </c>
@@ -5130,7 +5142,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>149</v>
       </c>
@@ -5144,7 +5156,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>149</v>
       </c>
@@ -5158,7 +5170,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>149</v>
       </c>
@@ -5172,7 +5184,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>149</v>
       </c>
@@ -5186,7 +5198,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>149</v>
       </c>
@@ -5200,7 +5212,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>149</v>
       </c>
@@ -5214,7 +5226,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>149</v>
       </c>
@@ -5228,7 +5240,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>149</v>
       </c>
@@ -5242,7 +5254,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>149</v>
       </c>
@@ -5256,7 +5268,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>149</v>
       </c>
@@ -5270,7 +5282,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>149</v>
       </c>
@@ -5284,7 +5296,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>149</v>
       </c>
@@ -5298,7 +5310,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>149</v>
       </c>
@@ -5312,7 +5324,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>149</v>
       </c>
@@ -5326,7 +5338,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>149</v>
       </c>
@@ -5340,7 +5352,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>149</v>
       </c>
@@ -5354,7 +5366,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>149</v>
       </c>
@@ -5368,7 +5380,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>149</v>
       </c>
@@ -5382,7 +5394,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>149</v>
       </c>
@@ -5396,7 +5408,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>149</v>
       </c>
@@ -5410,7 +5422,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>149</v>
       </c>
@@ -5424,7 +5436,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>149</v>
       </c>
@@ -5438,7 +5450,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>149</v>
       </c>
@@ -5452,7 +5464,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>149</v>
       </c>

--- a/UBW_API_obfuscation.xlsx
+++ b/UBW_API_obfuscation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\caelum\repos\ubw-json-to-csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92D1770-C388-4723-869D-97EE2732B7CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADD1EAB-17CE-4850-B94A-A33067252139}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E359F6E6-FAED-4DFB-A65F-3A9FAAFC7674}"/>
   </bookViews>
@@ -751,13 +751,14 @@
   <autoFilter ref="A1:D314" xr:uid="{672F1336-0EA8-4C3A-BF2C-1C5DB13BB90D}">
     <filterColumn colId="0">
       <filters>
-        <filter val="suppliers"/>
+        <filter val="relations"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="DateObfuscation(OrigVal, 90)"/>
         <filter val="DatetimeObfuscation(OrigVal, 90)"/>
+        <filter val="DateYYYYMMObfuscation(OrigVal, 90)"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1071,7 +1072,7 @@
   <dimension ref="A1:D314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D178" sqref="D178"/>
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2538,7 +2539,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>98</v>
       </c>
@@ -2549,7 +2550,7 @@
         <v>34</v>
       </c>
       <c r="D105" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
@@ -2874,7 +2875,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>98</v>
       </c>
@@ -3000,7 +3001,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>127</v>
       </c>
@@ -3518,7 +3519,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>127</v>
       </c>
@@ -3546,7 +3547,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>127</v>
       </c>
@@ -3560,7 +3561,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>127</v>
       </c>
@@ -3924,7 +3925,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>127</v>
       </c>
@@ -4495,7 +4496,7 @@
         <v>2</v>
       </c>
       <c r="D244" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
@@ -4509,7 +4510,7 @@
         <v>2</v>
       </c>
       <c r="D245" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.35">

--- a/UBW_API_obfuscation.xlsx
+++ b/UBW_API_obfuscation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\caelum\repos\ubw-json-to-csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADD1EAB-17CE-4850-B94A-A33067252139}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6012BDFD-5F56-4FD1-8AB5-664D8D0B6044}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E359F6E6-FAED-4DFB-A65F-3A9FAAFC7674}"/>
   </bookViews>
@@ -752,13 +752,6 @@
     <filterColumn colId="0">
       <filters>
         <filter val="relations"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="DateObfuscation(OrigVal, 90)"/>
-        <filter val="DatetimeObfuscation(OrigVal, 90)"/>
-        <filter val="DateYYYYMMObfuscation(OrigVal, 90)"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1072,7 +1065,7 @@
   <dimension ref="A1:D314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2483,7 +2476,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -2497,7 +2490,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -2511,7 +2504,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>98</v>
       </c>
@@ -2525,7 +2518,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>98</v>
       </c>
@@ -2550,10 +2543,10 @@
         <v>34</v>
       </c>
       <c r="D105" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>98</v>
       </c>
@@ -2567,7 +2560,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>98</v>
       </c>
@@ -2581,7 +2574,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>98</v>
       </c>
@@ -2595,7 +2588,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>98</v>
       </c>
@@ -2609,7 +2602,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>98</v>
       </c>
@@ -2623,7 +2616,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>98</v>
       </c>
@@ -2637,7 +2630,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>98</v>
       </c>
@@ -2651,7 +2644,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>98</v>
       </c>
@@ -2665,7 +2658,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>98</v>
       </c>
@@ -2679,7 +2672,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>98</v>
       </c>
@@ -2693,7 +2686,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>98</v>
       </c>
@@ -2707,7 +2700,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>98</v>
       </c>
@@ -2721,7 +2714,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>98</v>
       </c>
@@ -2735,7 +2728,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>98</v>
       </c>
@@ -2749,7 +2742,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>98</v>
       </c>
@@ -2763,7 +2756,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>98</v>
       </c>
@@ -2777,7 +2770,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>98</v>
       </c>
@@ -2791,7 +2784,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>98</v>
       </c>
@@ -2805,7 +2798,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>98</v>
       </c>
@@ -2819,7 +2812,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>98</v>
       </c>
@@ -2833,7 +2826,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>98</v>
       </c>
@@ -2847,7 +2840,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>98</v>
       </c>
@@ -2861,7 +2854,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>98</v>
       </c>
@@ -2889,7 +2882,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>98</v>
       </c>
@@ -2903,7 +2896,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>98</v>
       </c>

--- a/UBW_API_obfuscation.xlsx
+++ b/UBW_API_obfuscation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\caelum\repos\ubw-json-to-csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6012BDFD-5F56-4FD1-8AB5-664D8D0B6044}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B942A00-0DEC-4260-8717-49FE2E2663C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E359F6E6-FAED-4DFB-A65F-3A9FAAFC7674}"/>
   </bookViews>
@@ -751,7 +751,13 @@
   <autoFilter ref="A1:D314" xr:uid="{672F1336-0EA8-4C3A-BF2C-1C5DB13BB90D}">
     <filterColumn colId="0">
       <filters>
-        <filter val="relations"/>
+        <filter val="attribute-values"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="DatetimeObfuscation(OrigVal, 90)"/>
+        <filter val="DateYYYYMMObfuscation(OrigVal, 90)"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1065,7 +1071,7 @@
   <dimension ref="A1:D314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+      <selection activeCell="D264" sqref="D264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1353,7 +1359,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
@@ -1367,7 +1373,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
@@ -1384,7 +1390,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -2476,7 +2482,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -2490,7 +2496,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -2504,7 +2510,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>98</v>
       </c>
@@ -2518,7 +2524,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>98</v>
       </c>
@@ -2532,7 +2538,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>98</v>
       </c>
@@ -2546,7 +2552,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>98</v>
       </c>
@@ -2560,7 +2566,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>98</v>
       </c>
@@ -2574,7 +2580,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>98</v>
       </c>
@@ -2588,7 +2594,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>98</v>
       </c>
@@ -2602,7 +2608,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>98</v>
       </c>
@@ -2616,7 +2622,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>98</v>
       </c>
@@ -2630,7 +2636,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>98</v>
       </c>
@@ -2644,7 +2650,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>98</v>
       </c>
@@ -2658,7 +2664,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>98</v>
       </c>
@@ -2672,7 +2678,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>98</v>
       </c>
@@ -2686,7 +2692,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>98</v>
       </c>
@@ -2700,7 +2706,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>98</v>
       </c>
@@ -2714,7 +2720,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>98</v>
       </c>
@@ -2728,7 +2734,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>98</v>
       </c>
@@ -2742,7 +2748,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>98</v>
       </c>
@@ -2756,7 +2762,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>98</v>
       </c>
@@ -2770,7 +2776,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>98</v>
       </c>
@@ -2784,7 +2790,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>98</v>
       </c>
@@ -2798,7 +2804,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>98</v>
       </c>
@@ -2812,7 +2818,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>98</v>
       </c>
@@ -2826,7 +2832,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>98</v>
       </c>
@@ -2840,7 +2846,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>98</v>
       </c>
@@ -2854,7 +2860,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>98</v>
       </c>
@@ -2868,7 +2874,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>98</v>
       </c>
@@ -2882,7 +2888,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>98</v>
       </c>
@@ -2896,7 +2902,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>98</v>
       </c>
@@ -4100,7 +4106,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>12</v>
       </c>
@@ -4111,10 +4117,10 @@
         <v>6</v>
       </c>
       <c r="D217" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>12</v>
       </c>
@@ -4125,7 +4131,7 @@
         <v>6</v>
       </c>
       <c r="D218" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
     </row>
     <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
@@ -4142,7 +4148,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>12</v>
       </c>
@@ -4744,7 +4750,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>12</v>
       </c>
@@ -4755,10 +4761,10 @@
         <v>6</v>
       </c>
       <c r="D263" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>12</v>
       </c>
@@ -4769,7 +4775,7 @@
         <v>6</v>
       </c>
       <c r="D264" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
     </row>
     <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
